--- a/Excel_Challenge_500 - Horizontal Running Total.xlsx
+++ b/Excel_Challenge_500 - Horizontal Running Total.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E42483-98A8-4DF1-808E-3633A2EFC3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E671F0C-47BD-4E68-8ABF-0581CEE59DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <t>Answer Expected</t>
   </si>
@@ -744,16 +767,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.44140625" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
@@ -1046,4 +1069,961 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FD7B5E-7483-4520-9174-E55C545A7505}">
+  <dimension ref="A1:R41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>44986</v>
+      </c>
+      <c r="B3" s="7">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>110</v>
+      </c>
+      <c r="D3" s="8">
+        <v>200</v>
+      </c>
+      <c r="F3" s="5">
+        <v>44986</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>90</v>
+      </c>
+      <c r="I3" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <f>A3+1</f>
+        <v>44987</v>
+      </c>
+      <c r="B4" s="7">
+        <v>280</v>
+      </c>
+      <c r="C4" s="7">
+        <v>300</v>
+      </c>
+      <c r="D4" s="8">
+        <v>340</v>
+      </c>
+      <c r="F4" s="5">
+        <f>F3+1</f>
+        <v>44987</v>
+      </c>
+      <c r="G4" s="1">
+        <v>80</v>
+      </c>
+      <c r="H4" s="1">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <f t="shared" ref="A5:A11" si="0">A4+1</f>
+        <v>44988</v>
+      </c>
+      <c r="B5" s="7">
+        <v>400</v>
+      </c>
+      <c r="C5" s="7">
+        <v>440</v>
+      </c>
+      <c r="D5" s="8">
+        <v>500</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F11" si="1">F4+1</f>
+        <v>44988</v>
+      </c>
+      <c r="G5" s="1">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <f t="shared" si="0"/>
+        <v>44989</v>
+      </c>
+      <c r="B6" s="7">
+        <v>580</v>
+      </c>
+      <c r="C6" s="7">
+        <v>630</v>
+      </c>
+      <c r="D6" s="8">
+        <v>650</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>44989</v>
+      </c>
+      <c r="G6" s="1">
+        <v>80</v>
+      </c>
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>44990</v>
+      </c>
+      <c r="B7" s="7">
+        <v>680</v>
+      </c>
+      <c r="C7" s="7">
+        <v>700</v>
+      </c>
+      <c r="D7" s="8">
+        <v>730</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>44990</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>44991</v>
+      </c>
+      <c r="B8" s="7">
+        <v>810</v>
+      </c>
+      <c r="C8" s="7">
+        <v>910</v>
+      </c>
+      <c r="D8" s="8">
+        <v>950</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>44991</v>
+      </c>
+      <c r="G8" s="1">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1">
+        <v>100</v>
+      </c>
+      <c r="I8" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>44992</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1040</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1130</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1180</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>44992</v>
+      </c>
+      <c r="G9" s="1">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1">
+        <v>90</v>
+      </c>
+      <c r="I9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>44993</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1230</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1250</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1260</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>44993</v>
+      </c>
+      <c r="G10" s="1">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <f t="shared" si="0"/>
+        <v>44994</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1290</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1350</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1400</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>44994</v>
+      </c>
+      <c r="G11" s="3">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3">
+        <v>60</v>
+      </c>
+      <c r="I11" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="J14" s="16" t="str" cm="1">
+        <f t="array" ref="J14:M14">F2:I2</f>
+        <v>Date</v>
+      </c>
+      <c r="K14" s="17" t="str">
+        <v>Amt1</v>
+      </c>
+      <c r="L14" s="17" t="str">
+        <v>Amt2</v>
+      </c>
+      <c r="M14" s="18" t="str">
+        <v>Amt3</v>
+      </c>
+      <c r="O14" t="b" cm="1">
+        <f t="array" ref="O14:R23">F2:I11=J14:M23</f>
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15" cm="1">
+        <f t="array" ref="B15:B41">_xlfn.TOCOL(B3:D11)</f>
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>110</v>
+      </c>
+      <c r="D15">
+        <f>C15-B15</f>
+        <v>90</v>
+      </c>
+      <c r="F15" cm="1">
+        <f t="array" ref="F15:H23">_xlfn.WRAPROWS(D14:D40,3)</f>
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>90</v>
+      </c>
+      <c r="H15">
+        <v>90</v>
+      </c>
+      <c r="J15" s="5" cm="1">
+        <f t="array" ref="J15:J23">A3:A11</f>
+        <v>44986</v>
+      </c>
+      <c r="K15" s="1" cm="1">
+        <f t="array" ref="K15:M23">_xlfn.ANCHORARRAY(F15)</f>
+        <v>20</v>
+      </c>
+      <c r="L15" s="1">
+        <v>90</v>
+      </c>
+      <c r="M15" s="2">
+        <v>90</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>110</v>
+      </c>
+      <c r="C16">
+        <v>200</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D41" si="2">C16-B16</f>
+        <v>90</v>
+      </c>
+      <c r="F16">
+        <v>80</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>40</v>
+      </c>
+      <c r="J16" s="5">
+        <v>44987</v>
+      </c>
+      <c r="K16" s="1">
+        <v>80</v>
+      </c>
+      <c r="L16" s="1">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2">
+        <v>40</v>
+      </c>
+      <c r="O16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17">
+        <v>280</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F17">
+        <v>60</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>60</v>
+      </c>
+      <c r="J17" s="5">
+        <v>44988</v>
+      </c>
+      <c r="K17" s="1">
+        <v>60</v>
+      </c>
+      <c r="L17" s="1">
+        <v>40</v>
+      </c>
+      <c r="M17" s="2">
+        <v>60</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>280</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>80</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="J18" s="5">
+        <v>44989</v>
+      </c>
+      <c r="K18" s="1">
+        <v>80</v>
+      </c>
+      <c r="L18" s="1">
+        <v>50</v>
+      </c>
+      <c r="M18" s="2">
+        <v>20</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>300</v>
+      </c>
+      <c r="C19">
+        <v>340</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="J19" s="5">
+        <v>44990</v>
+      </c>
+      <c r="K19" s="1">
+        <v>30</v>
+      </c>
+      <c r="L19" s="1">
+        <v>20</v>
+      </c>
+      <c r="M19" s="2">
+        <v>30</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>340</v>
+      </c>
+      <c r="C20">
+        <v>400</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>80</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>40</v>
+      </c>
+      <c r="J20" s="5">
+        <v>44991</v>
+      </c>
+      <c r="K20" s="1">
+        <v>80</v>
+      </c>
+      <c r="L20" s="1">
+        <v>100</v>
+      </c>
+      <c r="M20" s="2">
+        <v>40</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>400</v>
+      </c>
+      <c r="C21">
+        <v>440</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>90</v>
+      </c>
+      <c r="G21">
+        <v>90</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="J21" s="5">
+        <v>44992</v>
+      </c>
+      <c r="K21" s="1">
+        <v>90</v>
+      </c>
+      <c r="L21" s="1">
+        <v>90</v>
+      </c>
+      <c r="M21" s="2">
+        <v>50</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>440</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="J22" s="5">
+        <v>44993</v>
+      </c>
+      <c r="K22" s="1">
+        <v>50</v>
+      </c>
+      <c r="L22" s="1">
+        <v>20</v>
+      </c>
+      <c r="M22" s="2">
+        <v>10</v>
+      </c>
+      <c r="O22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>500</v>
+      </c>
+      <c r="C23">
+        <v>580</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <v>60</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="J23" s="6">
+        <v>44994</v>
+      </c>
+      <c r="K23" s="3">
+        <v>30</v>
+      </c>
+      <c r="L23" s="3">
+        <v>60</v>
+      </c>
+      <c r="M23" s="4">
+        <v>50</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="R23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>580</v>
+      </c>
+      <c r="C24">
+        <v>630</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>630</v>
+      </c>
+      <c r="C25">
+        <v>650</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>650</v>
+      </c>
+      <c r="C26">
+        <v>680</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>680</v>
+      </c>
+      <c r="C27">
+        <v>700</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>700</v>
+      </c>
+      <c r="C28">
+        <v>730</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>730</v>
+      </c>
+      <c r="C29">
+        <v>810</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>810</v>
+      </c>
+      <c r="C30">
+        <v>910</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>910</v>
+      </c>
+      <c r="C31">
+        <v>950</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>950</v>
+      </c>
+      <c r="C32">
+        <v>1040</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1040</v>
+      </c>
+      <c r="C33">
+        <v>1130</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1130</v>
+      </c>
+      <c r="C34">
+        <v>1180</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1180</v>
+      </c>
+      <c r="C35">
+        <v>1230</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1230</v>
+      </c>
+      <c r="C36">
+        <v>1250</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1250</v>
+      </c>
+      <c r="C37">
+        <v>1260</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1260</v>
+      </c>
+      <c r="C38">
+        <v>1290</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1290</v>
+      </c>
+      <c r="C39">
+        <v>1350</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>1350</v>
+      </c>
+      <c r="C40">
+        <v>1400</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_500 - Horizontal Running Total.xlsx
+++ b/Excel_Challenge_500 - Horizontal Running Total.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E671F0C-47BD-4E68-8ABF-0581CEE59DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362BA824-44C4-42B8-A24B-01253D78AA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="MySingleFunction" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="5">
   <si>
     <t>Answer Expected</t>
   </si>
@@ -80,6 +81,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0;\-0;0;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -310,6 +314,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1075,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FD7B5E-7483-4520-9174-E55C545A7505}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1461,7 +1466,7 @@
         <v>200</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D41" si="2">C16-B16</f>
+        <f t="shared" ref="D16:D40" si="2">C16-B16</f>
         <v>90</v>
       </c>
       <c r="F16">
@@ -2021,6 +2026,633 @@
       <c r="B41">
         <v>1400</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E4AF4B-9990-4625-9093-39A0C0E93AA9}">
+  <dimension ref="A1:J41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="4" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>44986</v>
+      </c>
+      <c r="B3" s="7">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
+        <v>110</v>
+      </c>
+      <c r="D3" s="8">
+        <v>200</v>
+      </c>
+      <c r="F3" s="5">
+        <v>44986</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>90</v>
+      </c>
+      <c r="I3" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <f>A3+1</f>
+        <v>44987</v>
+      </c>
+      <c r="B4" s="7">
+        <v>280</v>
+      </c>
+      <c r="C4" s="7">
+        <v>300</v>
+      </c>
+      <c r="D4" s="8">
+        <v>340</v>
+      </c>
+      <c r="F4" s="5">
+        <f>F3+1</f>
+        <v>44987</v>
+      </c>
+      <c r="G4" s="1">
+        <v>80</v>
+      </c>
+      <c r="H4" s="1">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <f t="shared" ref="A5:A11" si="0">A4+1</f>
+        <v>44988</v>
+      </c>
+      <c r="B5" s="7">
+        <v>400</v>
+      </c>
+      <c r="C5" s="7">
+        <v>440</v>
+      </c>
+      <c r="D5" s="8">
+        <v>500</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F11" si="1">F4+1</f>
+        <v>44988</v>
+      </c>
+      <c r="G5" s="1">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <f t="shared" si="0"/>
+        <v>44989</v>
+      </c>
+      <c r="B6" s="7">
+        <v>580</v>
+      </c>
+      <c r="C6" s="7">
+        <v>630</v>
+      </c>
+      <c r="D6" s="8">
+        <v>650</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>44989</v>
+      </c>
+      <c r="G6" s="1">
+        <v>80</v>
+      </c>
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>44990</v>
+      </c>
+      <c r="B7" s="7">
+        <v>680</v>
+      </c>
+      <c r="C7" s="7">
+        <v>700</v>
+      </c>
+      <c r="D7" s="8">
+        <v>730</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>44990</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>44991</v>
+      </c>
+      <c r="B8" s="7">
+        <v>810</v>
+      </c>
+      <c r="C8" s="7">
+        <v>910</v>
+      </c>
+      <c r="D8" s="8">
+        <v>950</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>44991</v>
+      </c>
+      <c r="G8" s="1">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1">
+        <v>100</v>
+      </c>
+      <c r="I8" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>44992</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1040</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1130</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1180</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>44992</v>
+      </c>
+      <c r="G9" s="1">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1">
+        <v>90</v>
+      </c>
+      <c r="I9" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>44993</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1230</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1250</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1260</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>44993</v>
+      </c>
+      <c r="G10" s="1">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <f t="shared" si="0"/>
+        <v>44994</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1290</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1350</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1400</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>44994</v>
+      </c>
+      <c r="G11" s="3">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3">
+        <v>60</v>
+      </c>
+      <c r="I11" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="str" cm="1">
+        <f t="array" ref="B15:E24">_xlfn.LET(
+_xlpm.d,  A3:A11,
+_xlpm.a,  _xlfn.TOCOL(B3:D11),
+_xlpm.aa, _xlfn.WRAPROWS(_xlfn.VSTACK(_xlfn.TAKE(_xlpm.a,1),_xlfn.DROP(_xlfn.DROP(_xlpm.a,1)-_xlpm.a,-1)),3),
+_xlfn.VSTACK(F2:I2,_xlfn.HSTACK(_xlpm.d,_xlpm.aa))
+)</f>
+        <v>Date</v>
+      </c>
+      <c r="C15" s="17" t="str">
+        <v>Amt1</v>
+      </c>
+      <c r="D15" s="17" t="str">
+        <v>Amt2</v>
+      </c>
+      <c r="E15" s="18" t="str">
+        <v>Amt3</v>
+      </c>
+      <c r="G15" t="b" cm="1">
+        <f t="array" ref="G15:J24">_xlfn.ANCHORARRAY(B15)=F2:I11</f>
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>44986</v>
+      </c>
+      <c r="C16" s="1">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>90</v>
+      </c>
+      <c r="E16" s="2">
+        <v>90</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>44987</v>
+      </c>
+      <c r="C17" s="1">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <v>40</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>44988</v>
+      </c>
+      <c r="C18" s="1">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2">
+        <v>60</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>44989</v>
+      </c>
+      <c r="C19" s="1">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1">
+        <v>50</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>44990</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20</v>
+      </c>
+      <c r="E20" s="2">
+        <v>30</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>44991</v>
+      </c>
+      <c r="C21" s="1">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2">
+        <v>40</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>44992</v>
+      </c>
+      <c r="C22" s="1">
+        <v>90</v>
+      </c>
+      <c r="D22" s="1">
+        <v>90</v>
+      </c>
+      <c r="E22" s="2">
+        <v>50</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>44993</v>
+      </c>
+      <c r="C23" s="1">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2">
+        <v>10</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
+        <v>44994</v>
+      </c>
+      <c r="C24" s="3">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3">
+        <v>60</v>
+      </c>
+      <c r="E24" s="4">
+        <v>50</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="21"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="21"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="21"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="21"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="21"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="21"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="21"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="21"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="21"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
